--- a/assert/nfc/230614.xlsx
+++ b/assert/nfc/230614.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maginawin/Developer/Nodejs/AppStrings_Node/assert/nfc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB4FE6E-3A8F-4941-AD5A-DE37F8CCA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA0EE45-401C-1449-AEAC-9128B088ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="500" windowWidth="30140" windowHeight="26900" xr2:uid="{995B2040-845E-7F48-ACD1-5C1529FD9711}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="26900" xr2:uid="{995B2040-845E-7F48-ACD1-5C1529FD9711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>Power</t>
   </si>
@@ -279,6 +279,727 @@
   </si>
   <si>
     <t>广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rgb loop1 (clockwise)</t>
+  </si>
+  <si>
+    <t>Rgb 循环1（顺时针）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rgb loop2 (anticlockwise)</t>
+  </si>
+  <si>
+    <t>Rgb 循环2（逆时针）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waf loop1 (clockwise)</t>
+  </si>
+  <si>
+    <t>Waf 循环1（顺时针）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waf loop2 (anticlockwise)</t>
+  </si>
+  <si>
+    <t>Waf 循环2（逆时针）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W loop1 (increase)</t>
+  </si>
+  <si>
+    <t>W 循环1（累增）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W loop2 (decrease)</t>
+  </si>
+  <si>
+    <t>W 循环2（累减）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 1</t>
+  </si>
+  <si>
+    <t>直接功率控制 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 2</t>
+  </si>
+  <si>
+    <t>直接功率控制 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 3</t>
+  </si>
+  <si>
+    <t>直接功率控制 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 4</t>
+  </si>
+  <si>
+    <t>直接功率控制 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 5</t>
+  </si>
+  <si>
+    <t>直接功率控制 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 6</t>
+  </si>
+  <si>
+    <t>直接功率控制 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 7</t>
+  </si>
+  <si>
+    <t>直接功率控制 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 8</t>
+  </si>
+  <si>
+    <t>直接功率控制 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 9</t>
+  </si>
+  <si>
+    <t>直接功率控制 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 10</t>
+  </si>
+  <si>
+    <t>直接功率控制 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 11</t>
+  </si>
+  <si>
+    <t>直接功率控制 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 12</t>
+  </si>
+  <si>
+    <t>直接功率控制 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 13</t>
+  </si>
+  <si>
+    <t>直接功率控制 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 14</t>
+  </si>
+  <si>
+    <t>直接功率控制 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct arc power control 15</t>
+  </si>
+  <si>
+    <t>直接功率控制 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step up</t>
+  </si>
+  <si>
+    <t>步增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step down</t>
+  </si>
+  <si>
+    <t>步减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall max</t>
+  </si>
+  <si>
+    <t>调用最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall min</t>
+  </si>
+  <si>
+    <t>调用最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step down and off</t>
+  </si>
+  <si>
+    <t>步减直到关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On and step up</t>
+  </si>
+  <si>
+    <t>打开并步增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to last level</t>
+  </si>
+  <si>
+    <t>设置成最近亮度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 0</t>
+  </si>
+  <si>
+    <t>调用场景 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 1</t>
+  </si>
+  <si>
+    <t>调用场景 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 2</t>
+  </si>
+  <si>
+    <t>调用场景 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 3</t>
+  </si>
+  <si>
+    <t>调用场景 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 4</t>
+  </si>
+  <si>
+    <t>调用场景 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 5</t>
+  </si>
+  <si>
+    <t>调用场景 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 6</t>
+  </si>
+  <si>
+    <t>调用场景 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 7</t>
+  </si>
+  <si>
+    <t>调用场景 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 8</t>
+  </si>
+  <si>
+    <t>调用场景 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 9</t>
+  </si>
+  <si>
+    <t>调用场景 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 10</t>
+  </si>
+  <si>
+    <t>调用场景 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 11</t>
+  </si>
+  <si>
+    <t>调用场景 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 12</t>
+  </si>
+  <si>
+    <t>调用场景 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 13</t>
+  </si>
+  <si>
+    <t>调用场景 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 14</t>
+  </si>
+  <si>
+    <t>调用场景 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to scene 15</t>
+  </si>
+  <si>
+    <t>调用场景 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-coordinate step up</t>
+  </si>
+  <si>
+    <t>X 坐标步增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-coordinate step down</t>
+  </si>
+  <si>
+    <t>X 坐标步减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-coordinate, step up</t>
+  </si>
+  <si>
+    <t>Y 坐标步增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-coordinate step down</t>
+  </si>
+  <si>
+    <t>Y 坐标步减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cct step cooler</t>
+  </si>
+  <si>
+    <t>色温渐冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cct step warmer</t>
+  </si>
+  <si>
+    <t>色温渐暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 1</t>
+  </si>
+  <si>
+    <t>调用 xy 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 2</t>
+  </si>
+  <si>
+    <t>调用 xy 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 3</t>
+  </si>
+  <si>
+    <t>调用 xy 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 4</t>
+  </si>
+  <si>
+    <t>调用 xy 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 5</t>
+  </si>
+  <si>
+    <t>调用 xy 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 6</t>
+  </si>
+  <si>
+    <t>调用 xy 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 7</t>
+  </si>
+  <si>
+    <t>调用 xy 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 8</t>
+  </si>
+  <si>
+    <t>调用 xy 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 9</t>
+  </si>
+  <si>
+    <t>调用 xy 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 10</t>
+  </si>
+  <si>
+    <t>调用 xy 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 11</t>
+  </si>
+  <si>
+    <t>调用 xy 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 12</t>
+  </si>
+  <si>
+    <t>调用 xy 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 13</t>
+  </si>
+  <si>
+    <t>调用 xy 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 14</t>
+  </si>
+  <si>
+    <t>调用 xy 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 15</t>
+  </si>
+  <si>
+    <t>调用 xy 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate xy 16</t>
+  </si>
+  <si>
+    <t>调用 xy 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 1</t>
+  </si>
+  <si>
+    <t>调用 cct 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 2</t>
+  </si>
+  <si>
+    <t>调用 cct 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 3</t>
+  </si>
+  <si>
+    <t>调用 cct 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 4</t>
+  </si>
+  <si>
+    <t>调用 cct 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 5</t>
+  </si>
+  <si>
+    <t>调用 cct 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 6</t>
+  </si>
+  <si>
+    <t>调用 cct 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 7</t>
+  </si>
+  <si>
+    <t>调用 cct 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 8</t>
+  </si>
+  <si>
+    <t>调用 cct 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 9</t>
+  </si>
+  <si>
+    <t>调用 cct 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 10</t>
+  </si>
+  <si>
+    <t>调用 cct 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 11</t>
+  </si>
+  <si>
+    <t>调用 cct 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 12</t>
+  </si>
+  <si>
+    <t>调用 cct 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 13</t>
+  </si>
+  <si>
+    <t>调用 cct 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 14</t>
+  </si>
+  <si>
+    <t>调用 cct 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 15</t>
+  </si>
+  <si>
+    <t>调用 cct 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate cct 16</t>
+  </si>
+  <si>
+    <t>调用 cct 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 1</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 2</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 3</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 4</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 5</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 6</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 7</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 8</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 9</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 10</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 11</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 12</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 13</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 14</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 15</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate rgbwaf 16</t>
+  </si>
+  <si>
+    <t>调用 rgbwaf 16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +1007,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +1026,11 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF080808"/>
+      <name val="SF Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
       <name val="SF Mono"/>
     </font>
   </fonts>
@@ -330,7 +1056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +1064,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A790BD5-9AD3-7D4F-BDB1-73C5EC401D05}">
-  <dimension ref="A2:B70"/>
+  <dimension ref="A2:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -945,6 +1674,1139 @@
         <v>69</v>
       </c>
     </row>
+    <row r="71" spans="1:2">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
